--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3826831.717292739</v>
+        <v>3822527.377482872</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283171</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>123.7911484401892</v>
+        <v>8.484528893292262</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>98.25079438029358</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>235.3987159899427</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>245.9994401138242</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>17.65004124955349</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,64 +901,64 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.36057463500366</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>225.4031397636151</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>152.7676931992223</v>
-      </c>
-      <c r="T5" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U5" t="n">
-        <v>251.1481678782825</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>161.6785210066385</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.28688718947221</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>84.15054694828133</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>239.3061572286269</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>225.2436000926574</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611524</v>
+        <v>20.24979976115227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>190.2932553761562</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052099088</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>50.34571932180317</v>
       </c>
       <c r="H10" t="n">
-        <v>63.02211323363348</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695514</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>18.70843787977566</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>117.2645540643931</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>171.5573199799897</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>164.9367233701427</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695514</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>35.55160172423695</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569551</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012149</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053497</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2371,10 +2371,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>108.2950343703304</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012149</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>95.12712756824324</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>126.603514883483</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>220.864501724972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695612</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560524</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>26.12116916215703</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>161.0175085755505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>18.93832930943095</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.9649966249151</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.0479880037676</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="C2" t="n">
-        <v>166.0479880037676</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356494</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991311</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946887</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298167</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709455</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>166.0479880037676</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="W2" t="n">
-        <v>166.0479880037676</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="X2" t="n">
-        <v>166.0479880037676</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.0479880037676</v>
+        <v>432.4256445709457</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>443.72777598926</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>269.274746708133</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>120.3403370468817</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4412,49 +4412,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302307</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267545</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293595</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442521</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>611.5747118810656</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>611.5747118810656</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W3" t="n">
-        <v>373.7982310831436</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="X3" t="n">
-        <v>165.9467308776107</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.9467308776107</v>
+        <v>611.943113009328</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.2115014322552</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="C4" t="n">
-        <v>183.2115014322552</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="D4" t="n">
-        <v>183.2115014322552</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4503,37 +4503,37 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735293</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>659.6853352735293</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>411.2010523302725</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>183.2115014322552</v>
+        <v>1037.027195511526</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.2115014322552</v>
+        <v>816.234616367996</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>432.4256445709457</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="C5" t="n">
-        <v>432.4256445709457</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="D5" t="n">
-        <v>432.4256445709457</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E5" t="n">
-        <v>432.4256445709457</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>416.9099126163966</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>432.4256445709457</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>432.4256445709457</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="W5" t="n">
-        <v>432.4256445709457</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="X5" t="n">
-        <v>432.4256445709457</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="Y5" t="n">
-        <v>432.4256445709457</v>
+        <v>560.7979242836798</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>280.8187272956869</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>280.8187272956869</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>280.8187272956869</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4646,7 +4646,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
         <v>192.1295835699343</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>742.9075842294213</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>742.9075842294213</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>488.6702275012197</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>280.8187272956869</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>280.8187272956869</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>659.4139745374563</v>
+        <v>652.4144760322547</v>
       </c>
       <c r="C7" t="n">
-        <v>490.4777916095494</v>
+        <v>483.4782931043478</v>
       </c>
       <c r="D7" t="n">
-        <v>490.4777916095494</v>
+        <v>333.3616536920121</v>
       </c>
       <c r="E7" t="n">
-        <v>490.4777916095494</v>
+        <v>185.4485601096189</v>
       </c>
       <c r="F7" t="n">
-        <v>343.5878441116391</v>
+        <v>38.55861261170858</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>38.55861261170858</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>38.55861261170858</v>
       </c>
       <c r="I7" t="n">
         <v>21.09711040012049</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>841.062439367696</v>
+        <v>834.0629408624944</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.407986524948</v>
+        <v>1182.839042069395</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.407986524948</v>
+        <v>813.8765251289828</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.407986524948</v>
+        <v>455.6108265222323</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>69.82257392398805</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353408</v>
+        <v>62.87707317478457</v>
       </c>
       <c r="G8" t="n">
-        <v>421.715859727008</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467176</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607416</v>
+        <v>442.1757437607434</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045945</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209584</v>
+        <v>1655.591685209588</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940595</v>
+        <v>2053.9057189406</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.356530550203</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661169</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="U8" t="n">
-        <v>2318.839369202755</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="V8" t="n">
-        <v>1987.776481859184</v>
+        <v>2333.043972370408</v>
       </c>
       <c r="W8" t="n">
-        <v>1635.00782658907</v>
+        <v>2333.043972370408</v>
       </c>
       <c r="X8" t="n">
-        <v>1635.00782658907</v>
+        <v>1959.578214109328</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.00782658907</v>
+        <v>1569.438882133516</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>238.3188829507239</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572706</v>
+        <v>506.4581980381371</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666626</v>
+        <v>800.9941814716191</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040964</v>
+        <v>1164.060649945921</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513533</v>
+        <v>1551.145052418491</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500922</v>
+        <v>1883.031862405881</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930546</v>
+        <v>2445.345361789044</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.826280251705</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685354</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>282.8570803031583</v>
+        <v>715.9213805686172</v>
       </c>
       <c r="C10" t="n">
-        <v>282.8570803031583</v>
+        <v>546.9851976407103</v>
       </c>
       <c r="D10" t="n">
-        <v>282.8570803031583</v>
+        <v>396.8685582283746</v>
       </c>
       <c r="E10" t="n">
-        <v>282.8570803031583</v>
+        <v>248.9554646459815</v>
       </c>
       <c r="F10" t="n">
-        <v>282.8570803031583</v>
+        <v>102.0655171480711</v>
       </c>
       <c r="G10" t="n">
-        <v>114.8699554428491</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380142</v>
+        <v>76.63468308380178</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676566</v>
+        <v>248.2500215676573</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368917</v>
+        <v>523.3850043368928</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904032</v>
+        <v>823.8653899904048</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412619</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412619</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.174753887025</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.056380381666</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>1021.056380381666</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="W10" t="n">
-        <v>731.6392103447058</v>
+        <v>1346.351975440404</v>
       </c>
       <c r="X10" t="n">
-        <v>503.6496594466885</v>
+        <v>1118.362424542387</v>
       </c>
       <c r="Y10" t="n">
-        <v>282.8570803031583</v>
+        <v>897.569845398857</v>
       </c>
     </row>
     <row r="11">
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400737</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>344.917417812167</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998315</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998315</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000581</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000581</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138431</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703132</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969314</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981021</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>467.7318369701953</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578598</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578598</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578598</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578598</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2273.672861378251</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.672861378251</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W16" t="n">
-        <v>1267.098614769889</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X16" t="n">
-        <v>1039.109063871872</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.3164847283416</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,13 +5542,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143763</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257303</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257303</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133947</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310019</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330917</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.3734867995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5737,34 +5737,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,22 +5773,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5797,7 +5797,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188002</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057735</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189236</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533434</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327547</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290587</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925696</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490397</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5992,16 +5992,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6019,7 +6019,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400746</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121679</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121679</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121679</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057736</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713844</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703141</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6229,19 +6229,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2824.769373306003</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2824.769373306003</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2824.769373306003</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,52 +6445,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6502,13 +6502,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.613315601763</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356187</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232831</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408901</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429798</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.46108051051</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.46108051051</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.04391047355</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.054359575533</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.261780432003</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6727,7 +6727,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,37 +7001,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4041655335318</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>664.287526121196</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3744325388029</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4844850408925</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>202.2883857557725</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7502,7 +7502,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>808.8888553856862</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>639.9526724577793</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>489.8360330454435</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>341.9229394630504</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>195.03299196514</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>195.03299196514</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159259</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3044.370838283061</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>2875.434655355155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>2725.318015942819</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>4507.978318053498</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>4218.903091397696</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>3964.218603191809</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>3674.801433154848</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>3446.811882256831</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>3226.019303113301</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127216</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8151,13 +8151,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775106</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>84.38618054173088</v>
       </c>
       <c r="L9" t="n">
-        <v>54.39745977364731</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348513</v>
+        <v>20.9861830434849</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>126.7126101431554</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>134.8730892594349</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>9.468966021654921</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>121.5862749664481</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>190.1580536648</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856533</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392193833</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>37.12601365260065</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856533</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>50.29392045468801</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>40.64330621514473</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>4.845153664065123</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>114.1735436840669</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.3563835367929</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>9.46896602165404</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>635297.7181999519</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>635297.7181999519</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>635297.7181999519</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977554</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="N2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977556</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580786</v>
+        <v>390680.0076580807</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606932</v>
+        <v>507909.2320606919</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,31 +26383,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911411</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>4.359890226623975e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101756</v>
+        <v>95270.23779101802</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.171571190602011e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.359890226623975e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,37 +26423,37 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555025</v>
+        <v>139261.652755502</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678139</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678135</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678139</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678139</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678133</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678129</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678129</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567895</v>
+        <v>92902.86757567909</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-192952.7241526449</v>
+        <v>-192952.7241526448</v>
       </c>
       <c r="C6" t="n">
         <v>487135.2564385479</v>
       </c>
       <c r="D6" t="n">
-        <v>177671.1976284162</v>
+        <v>177671.197628415</v>
       </c>
       <c r="E6" t="n">
-        <v>167379.084526374</v>
+        <v>167031.7052720185</v>
       </c>
       <c r="F6" t="n">
-        <v>675288.316587067</v>
+        <v>674940.9373327105</v>
       </c>
       <c r="G6" t="n">
-        <v>675288.3165870676</v>
+        <v>674940.9373327111</v>
       </c>
       <c r="H6" t="n">
-        <v>675288.3165870667</v>
+        <v>674940.9373327105</v>
       </c>
       <c r="I6" t="n">
-        <v>675288.3165870674</v>
+        <v>674940.9373327104</v>
       </c>
       <c r="J6" t="n">
-        <v>606289.1621679536</v>
+        <v>605941.7829135965</v>
       </c>
       <c r="K6" t="n">
-        <v>675288.3165870674</v>
+        <v>674940.9373327109</v>
       </c>
       <c r="L6" t="n">
-        <v>580018.07879605</v>
+        <v>579670.6995416929</v>
       </c>
       <c r="M6" t="n">
-        <v>542570.3408915985</v>
+        <v>542222.961637242</v>
       </c>
       <c r="N6" t="n">
-        <v>675288.3165870676</v>
+        <v>674940.9373327108</v>
       </c>
       <c r="O6" t="n">
-        <v>675288.3165870674</v>
+        <v>674940.9373327107</v>
       </c>
       <c r="P6" t="n">
-        <v>675288.3165870673</v>
+        <v>674940.9373327104</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26743,16 +26743,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627826</v>
+        <v>933.7024595627843</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856955</v>
+        <v>640.1406900856973</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,25 +26931,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.714463988252514e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.449862783279968e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.714463988252514e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>5.449862783279968e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26965,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933043</v>
+        <v>319.647445793306</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788907</v>
+        <v>434.2730407788897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841893</v>
+        <v>376.4268100841911</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841911</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139526</v>
+        <v>532.5675980139508</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.714463988252514e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.449862783279968e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841893</v>
+        <v>376.4268100841911</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>230.8918931804938</v>
+        <v>346.1985127273907</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862882</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>59.39428607510736</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.29626717097688</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27593,19 +27593,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117139</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>40.52355822276684</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.0596141394837</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.5154711067078</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>102.3491187065198</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>64.17596649691615</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>104.8636863353363</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888209</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>134.4341064038135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>11.73920946105878</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.5086583774775</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27985,10 +27985,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.776449164531471</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164524166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.961534289903</v>
       </c>
       <c r="H10" t="n">
-        <v>84.23520672540604</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.316432677153248e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-8.196257465834636e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.157194799753628e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.221555270729305e-12</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,16 +30273,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885555</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954667</v>
+        <v>38.44132789546677</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763188</v>
+        <v>477.4691627763197</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354928</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359937</v>
+        <v>659.0954050359949</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525086</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230789</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983019</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542135</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026267</v>
+        <v>69.1468330902628</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617164</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152212</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.835446451909</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133933</v>
+        <v>8.095024154133947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307411</v>
+        <v>75.70643221307425</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942748</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865033</v>
+        <v>0.09183958618650347</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145783</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968512</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817595</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565776</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32809,7 +32809,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,10 +33505,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33517,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,19 +33742,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34374,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089026</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496425</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705669</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313382</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655055</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.749171808721</v>
+        <v>428.7491718087222</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559176</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091023</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430323</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797633</v>
+        <v>183.038476879764</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234284</v>
+        <v>20.20013907234326</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127579</v>
+        <v>188.997603781685</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884363</v>
+        <v>270.8477930175891</v>
       </c>
       <c r="L9" t="n">
-        <v>351.908554150901</v>
+        <v>297.5110943772545</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396981</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318879</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074637</v>
+        <v>335.2392020074646</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804285</v>
+        <v>567.9934337203664</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961976</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873311</v>
+        <v>25.68023017873332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.296024231245</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748329</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367789</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121332</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36062,7 +36062,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295356</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295356</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,10 +37153,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37165,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3822527.377482872</v>
+        <v>3824287.907785656</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.484528893292262</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>21.31870353900228</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>98.25079438029358</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>6.084573935868852</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.57784215067144</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>17.65004124955349</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,55 +907,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>225.4031397636151</v>
       </c>
       <c r="W5" t="n">
         <v>263.7138800015061</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>17.28688718947221</v>
       </c>
       <c r="I7" t="n">
-        <v>17.28688718947221</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>284.8637845980456</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>225.2436000926574</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>91.06264775161181</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115227</v>
+        <v>20.24979976115242</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099088</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932180317</v>
+        <v>50.3457193218002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2645540643931</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>30.65104903283332</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>171.5573199799897</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2371,10 +2371,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576155</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>151.8555862333575</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038638</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560524</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038638</v>
       </c>
     </row>
     <row r="44">
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>432.4256445709457</v>
+      </c>
+      <c r="C2" t="n">
+        <v>432.4256445709457</v>
+      </c>
+      <c r="D2" t="n">
         <v>166.0479880037678</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>166.0479880037678</v>
       </c>
-      <c r="D2" t="n">
-        <v>157.4777567984221</v>
-      </c>
-      <c r="E2" t="n">
-        <v>157.4777567984221</v>
-      </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>159.1024872545643</v>
       </c>
       <c r="G2" t="n">
         <v>137.5684432757741</v>
@@ -4330,22 +4330,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>443.72777598926</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C3" t="n">
-        <v>269.274746708133</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D3" t="n">
-        <v>120.3403370468817</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
         <v>21.09711040012049</v>
@@ -4409,7 +4409,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
         <v>192.1295835699343</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>678.0833756466777</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742819</v>
+        <v>678.0833756466777</v>
       </c>
       <c r="W3" t="n">
-        <v>819.7034117742819</v>
+        <v>678.0833756466777</v>
       </c>
       <c r="X3" t="n">
-        <v>819.7034117742819</v>
+        <v>678.0833756466777</v>
       </c>
       <c r="Y3" t="n">
-        <v>611.943113009328</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.5861515377562</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="C4" t="n">
-        <v>634.5861515377562</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4695121254205</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075542</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.25163904575</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.25163904575</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.25163904575</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.25163904575</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.25163904575</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.25163904575</v>
       </c>
       <c r="X4" t="n">
-        <v>1037.027195511526</v>
+        <v>1052.25163904575</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.234616367996</v>
+        <v>831.4590599022204</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.7979242836798</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>560.7979242836798</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4202677165019</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165019</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>827.1755808508577</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>560.7979242836798</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X5" t="n">
-        <v>560.7979242836798</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.7979242836798</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4646,25 +4646,25 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4719,7 +4719,7 @@
         <v>38.55861261170858</v>
       </c>
       <c r="H7" t="n">
-        <v>38.55861261170858</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
         <v>21.09711040012049</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.839042069395</v>
+        <v>726.526287428082</v>
       </c>
       <c r="C8" t="n">
-        <v>813.8765251289828</v>
+        <v>357.5637704876703</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6108265222323</v>
+        <v>69.82257392398786</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398805</v>
+        <v>69.82257392398786</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478457</v>
+        <v>62.87707317478439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467176</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607434</v>
+        <v>442.1757437607416</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045917</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209588</v>
+        <v>1655.591685209582</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.9057189406</v>
+        <v>2053.905718940593</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550203</v>
+        <v>2359.356530550195</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2540.564622661161</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="V8" t="n">
-        <v>2333.043972370408</v>
+        <v>2229.499872999209</v>
       </c>
       <c r="W8" t="n">
-        <v>2333.043972370408</v>
+        <v>1876.731217729095</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.578214109328</v>
+        <v>1503.265459468015</v>
       </c>
       <c r="Y8" t="n">
-        <v>1569.438882133516</v>
+        <v>1113.126127492204</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.509720801075</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.056691519948</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586967</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532412</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801262</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763144</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685579</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507239</v>
+        <v>238.3188829507233</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381371</v>
+        <v>422.9158793018224</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716191</v>
+        <v>800.9941814716144</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945921</v>
+        <v>1164.060649945915</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418491</v>
+        <v>1551.145052418484</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405881</v>
+        <v>1883.031862405873</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789044</v>
+        <v>2445.345361789035</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251705</v>
+        <v>2424.826280251696</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685354</v>
+        <v>2230.816477685345</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751574</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519831</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.33685679163</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586097</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821143</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686172</v>
+        <v>715.921380568614</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407103</v>
+        <v>546.9851976407072</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283746</v>
+        <v>396.8685582283714</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459815</v>
+        <v>248.9554646459783</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480711</v>
+        <v>102.0655171480679</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380178</v>
+        <v>76.63468308380135</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368928</v>
+        <v>523.3850043368916</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904048</v>
+        <v>823.8653899904029</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440404</v>
+        <v>1346.351975440401</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542387</v>
+        <v>1118.362424542384</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.569845398857</v>
+        <v>897.5698453988538</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.0653816078141</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>124.7773186366924</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2273.672861378251</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.672861378251</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1984.597634722449</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.913146516562</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1440.495976479601</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1212.506425581584</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>991.7138464380538</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5655,16 +5655,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,13 +5834,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5992,16 +5992,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6019,7 +6019,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6135,13 +6135,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6457,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2043.673064443772</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.597837787969</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.913349582082</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.496179545122</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5066286471044</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035743</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6785,13 +6785,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6913,73 +6913,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,34 +7001,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,34 +7074,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7165,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7241,16 +7241,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,34 +7636,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168601</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658823</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>84.38618054173088</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>84.38618054172821</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434849</v>
+        <v>20.98618304348516</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>134.8730892594349</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.61478728573221</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>9.468966021654921</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>65.54986409393072</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194223</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>635297.7181999518</v>
+        <v>635297.7181999519</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>786967.9346977562</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977561</v>
       </c>
       <c r="M2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977561</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580807</v>
+        <v>390680.0076580783</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606919</v>
+        <v>507909.2320606939</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101802</v>
+        <v>95270.23779101748</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.652755502</v>
+        <v>139261.6527555026</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26441,25 +26441,25 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>10557.08828678129</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10557.0882867812</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678129</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678129</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567909</v>
+        <v>92902.86757567892</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-192952.7241526448</v>
+        <v>-192952.724152645</v>
       </c>
       <c r="C6" t="n">
-        <v>487135.2564385479</v>
+        <v>487135.256438548</v>
       </c>
       <c r="D6" t="n">
-        <v>177671.197628415</v>
+        <v>177671.1976284166</v>
       </c>
       <c r="E6" t="n">
-        <v>167031.7052720185</v>
+        <v>167344.3466009379</v>
       </c>
       <c r="F6" t="n">
-        <v>674940.9373327105</v>
+        <v>675253.5786616317</v>
       </c>
       <c r="G6" t="n">
-        <v>674940.9373327111</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="H6" t="n">
-        <v>674940.9373327105</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="I6" t="n">
-        <v>674940.9373327104</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="J6" t="n">
-        <v>605941.7829135965</v>
+        <v>606254.4242425178</v>
       </c>
       <c r="K6" t="n">
-        <v>674940.9373327109</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="L6" t="n">
-        <v>579670.6995416929</v>
+        <v>579983.3408706147</v>
       </c>
       <c r="M6" t="n">
-        <v>542222.961637242</v>
+        <v>542535.6029661626</v>
       </c>
       <c r="N6" t="n">
-        <v>674940.9373327108</v>
+        <v>675253.5786616321</v>
       </c>
       <c r="O6" t="n">
-        <v>674940.9373327107</v>
+        <v>675253.578661632</v>
       </c>
       <c r="P6" t="n">
-        <v>674940.9373327104</v>
+        <v>675253.5786616321</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627843</v>
+        <v>933.7024595627823</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856973</v>
+        <v>640.140690085695</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.436047097567693e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793306</v>
+        <v>319.6474457933041</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788897</v>
+        <v>434.2730407788914</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.4268100841889</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139533</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.4268100841891</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139508</v>
+        <v>532.5675980139536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.4268100841889</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>346.1985127273907</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.5154711067077</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>59.39428607510736</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27508,16 +27508,16 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>199.5981218414355</v>
       </c>
     </row>
     <row r="4">
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>124.9267607329925</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>208.0596141394837</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>187.431034882095</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27675,7 +27675,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>102.3491187065198</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>85.52708871590687</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>135.0952721463846</v>
       </c>
       <c r="I7" t="n">
-        <v>104.8636863353363</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888209</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>69.81925702263737</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465014</v>
+        <v>65.76608425465045</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>102.5086583774775</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164533275</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164524166</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.961534289903</v>
+        <v>115.961534289906</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.221555270729305e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,19 +29325,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.157194799753628e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.221555270729305e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,16 +30273,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.753577726885554</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546677</v>
+        <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972531</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763197</v>
+        <v>477.4691627763187</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354926</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359949</v>
+        <v>659.0954050359935</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525086</v>
+        <v>669.7602577525072</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307889</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983017</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542135</v>
+        <v>405.3441667542127</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864749</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.53465245140465</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436928</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902628</v>
+        <v>69.14683309026266</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502166</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571278</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.8678404617163</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.3360580152211</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451909</v>
+        <v>477.8354464519081</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947587</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366397</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133947</v>
+        <v>8.095024154133931</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415877</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.3240987490122</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046253</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307425</v>
+        <v>75.70643221307409</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942746</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650347</v>
+        <v>0.09183958618650327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,7 +32563,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33265,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34871,7 +34871,7 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958076</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705668</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313381</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655054</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087222</v>
+        <v>428.7491718087208</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559176</v>
+        <v>440.3471941559163</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078091022</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.5361733430322</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879764</v>
+        <v>183.0384768797632</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234326</v>
+        <v>20.20013907234278</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.997603781685</v>
+        <v>188.9976037816846</v>
       </c>
       <c r="K9" t="n">
-        <v>270.8477930175891</v>
+        <v>186.4616124758576</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772545</v>
+        <v>381.8972749189818</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396991</v>
+        <v>366.733806539698</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318889</v>
+        <v>390.9943459318878</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074646</v>
+        <v>335.2392020074636</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203664</v>
+        <v>567.9934337203656</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.381210660349</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873332</v>
+        <v>25.68023017873308</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641529</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228576</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,7 +36211,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
